--- a/Diagrama_de_Gantt.xlsx
+++ b/Diagrama_de_Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88266D93-20B5-4BF4-AC29-F8E2CA9BC778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB864464-939B-475E-AB14-34B162848CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1281,7 +1281,7 @@
     <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1613,16 +1613,44 @@
     <xf numFmtId="14" fontId="20" fillId="10" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="46" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="14" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1634,13 +1662,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1655,6 +1683,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1663,44 +1700,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="46" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="14" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1757,282 +1756,34 @@
   </cellStyles>
   <dxfs count="56">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2177,50 +1928,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2249,6 +1956,142 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2288,6 +2131,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2350,6 +2207,148 @@
           <bgColor theme="1" tint="0.249977111117893"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -2711,10 +2710,10 @@
           <xdr:rowOff>55659</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>52</xdr:col>
-          <xdr:colOff>620417</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>181700</xdr:rowOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>111318</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>127221</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2779,7 +2778,7 @@
                   <a14:compatExt spid="_x0000_s13313"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001340000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001340000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2834,7 +2833,7 @@
                   <a14:compatExt spid="_x0000_s17409"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001440000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001440000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2865,7 +2864,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Hitos4352" displayName="Hitos4352" ref="B9:G37" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Hitos4352" displayName="Hitos4352" ref="B9:G37" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="B9:G37" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2875,12 +2874,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Descripción del hito" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Categoría" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Asignado a" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progreso" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Inicio" dataDxfId="37" dataCellStyle="Fecha"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Días" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Descripción del hito" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Categoría" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Asignado a" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progreso" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Inicio" dataDxfId="27" dataCellStyle="Fecha"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Días" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="ListaTareasPendientes" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2892,7 +2891,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Hitos435" displayName="Hitos435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Hitos435" displayName="Hitos435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2902,9 +2901,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Descripción del hito" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Categoría" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Asignado a" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Descripción del hito" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Categoría" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Asignado a" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{62B00BEF-16BE-4692-B5E2-F287F680F2C1}" name="Progreso"/>
     <tableColumn id="5" xr3:uid="{D6D72902-F68F-4E59-A714-AFFF520C647A}" name="Inicio" dataCellStyle="Fecha"/>
     <tableColumn id="6" xr3:uid="{93E698DE-286F-49ED-AA20-D0C843671DE8}" name="Días"/>
@@ -2919,7 +2918,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Hitos43524" displayName="Hitos43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Hitos43524" displayName="Hitos43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2929,9 +2928,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Descripción del hito" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Categoría" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Asignado a" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Descripción del hito" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Categoría" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Asignado a" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="Progreso"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="Inicio" dataCellStyle="Fecha"/>
     <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Días"/>
@@ -3224,6 +3223,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -3256,11 +3258,11 @@
     <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="7"/>
       <c r="B2" s="96"/>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="96"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3288,11 +3290,11 @@
     <row r="4" spans="1:13" s="8" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7"/>
       <c r="B4" s="91"/>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
       <c r="F4" s="91"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -3305,11 +3307,11 @@
     <row r="5" spans="1:13" s="8" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="7"/>
       <c r="B5" s="91"/>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
       <c r="F5" s="91"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3408,8 +3410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9BEAD0-786A-4F3A-BCD3-DA7444CB9941}">
   <dimension ref="A2:AG39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="84" zoomScaleNormal="91" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -3427,27 +3429,27 @@
   <sheetData>
     <row r="2" spans="1:33" ht="33.85" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
       <c r="U2" s="60"/>
       <c r="V2" s="60"/>
       <c r="W2" s="60"/>
@@ -3485,45 +3487,45 @@
       <c r="D4" s="67"/>
       <c r="E4" s="68"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="143" t="s">
+      <c r="G4" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="144"/>
-      <c r="I4" s="145" t="s">
+      <c r="H4" s="127"/>
+      <c r="I4" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="146" t="s">
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="146"/>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="146"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="146" t="s">
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="146"/>
-      <c r="U4" s="146"/>
-      <c r="V4" s="146"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="146" t="s">
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="146"/>
-      <c r="Z4" s="146"/>
-      <c r="AA4" s="146"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="146" t="s">
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="AD4" s="146"/>
-      <c r="AE4" s="146"/>
-      <c r="AF4" s="146"/>
-      <c r="AG4" s="144"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
+      <c r="AG4" s="127"/>
     </row>
     <row r="5" spans="1:33" ht="21.3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
@@ -3532,33 +3534,33 @@
       <c r="D5" s="67"/>
       <c r="E5" s="68"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="144"/>
-      <c r="AA5" s="144"/>
-      <c r="AB5" s="144"/>
-      <c r="AC5" s="144"/>
-      <c r="AD5" s="144"/>
-      <c r="AE5" s="144"/>
-      <c r="AF5" s="144"/>
-      <c r="AG5" s="144"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="127"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="127"/>
+      <c r="AG5" s="127"/>
     </row>
     <row r="6" spans="1:33" ht="21.3" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
@@ -3572,153 +3574,153 @@
       <c r="F6" s="69"/>
       <c r="G6" s="68"/>
       <c r="H6" s="68"/>
-      <c r="I6" s="150" t="str">
+      <c r="I6" s="130" t="str">
         <f>TEXT(I7,"mmmm")</f>
         <v>mayo</v>
       </c>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="151"/>
-      <c r="P6" s="151" t="str">
+      <c r="J6" s="130"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131" t="str">
         <f>IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
         <v>junio</v>
       </c>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="151"/>
-      <c r="T6" s="151"/>
-      <c r="U6" s="151"/>
-      <c r="V6" s="151"/>
-      <c r="W6" s="151" t="str">
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="131" t="str">
         <f>IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
         <v/>
       </c>
-      <c r="X6" s="151"/>
-      <c r="Y6" s="151"/>
-      <c r="Z6" s="151"/>
-      <c r="AA6" s="151"/>
-      <c r="AB6" s="151"/>
-      <c r="AC6" s="151"/>
-      <c r="AD6" s="151" t="str">
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="131" t="str">
         <f>IF(OR(TEXT(AD7,"mmmm")=W6,TEXT(AD7,"mmmm")=P6,TEXT(AD7,"mmmm")=I6),"",TEXT(AD7,"mmmm"))</f>
         <v/>
       </c>
-      <c r="AE6" s="151"/>
-      <c r="AF6" s="151"/>
-      <c r="AG6" s="151"/>
+      <c r="AE6" s="131"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="131"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="142">
+      <c r="C7" s="125">
         <v>1</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="68"/>
       <c r="F7" s="68"/>
       <c r="G7" s="68"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="152">
+      <c r="H7" s="68"/>
+      <c r="I7" s="132">
         <v>45076</v>
       </c>
-      <c r="J7" s="152">
+      <c r="J7" s="132">
         <f>I7+1</f>
         <v>45077</v>
       </c>
-      <c r="K7" s="152">
+      <c r="K7" s="132">
         <f t="shared" ref="K7:AG7" si="0">J7+1</f>
         <v>45078</v>
       </c>
-      <c r="L7" s="152">
+      <c r="L7" s="132">
         <f t="shared" si="0"/>
         <v>45079</v>
       </c>
-      <c r="M7" s="152">
+      <c r="M7" s="132">
         <f t="shared" si="0"/>
         <v>45080</v>
       </c>
-      <c r="N7" s="152">
+      <c r="N7" s="132">
         <f t="shared" si="0"/>
         <v>45081</v>
       </c>
-      <c r="O7" s="152">
+      <c r="O7" s="132">
         <f t="shared" si="0"/>
         <v>45082</v>
       </c>
-      <c r="P7" s="152">
+      <c r="P7" s="132">
         <f>O7+1</f>
         <v>45083</v>
       </c>
-      <c r="Q7" s="152">
+      <c r="Q7" s="132">
         <f>P7+1</f>
         <v>45084</v>
       </c>
-      <c r="R7" s="152">
+      <c r="R7" s="132">
         <f t="shared" si="0"/>
         <v>45085</v>
       </c>
-      <c r="S7" s="152">
+      <c r="S7" s="132">
         <f t="shared" si="0"/>
         <v>45086</v>
       </c>
-      <c r="T7" s="152">
+      <c r="T7" s="132">
         <f t="shared" si="0"/>
         <v>45087</v>
       </c>
-      <c r="U7" s="152">
+      <c r="U7" s="132">
         <f t="shared" si="0"/>
         <v>45088</v>
       </c>
-      <c r="V7" s="152">
+      <c r="V7" s="132">
         <f t="shared" si="0"/>
         <v>45089</v>
       </c>
-      <c r="W7" s="152">
+      <c r="W7" s="132">
         <f>V7+1</f>
         <v>45090</v>
       </c>
-      <c r="X7" s="152">
+      <c r="X7" s="132">
         <f>W7+1</f>
         <v>45091</v>
       </c>
-      <c r="Y7" s="152">
+      <c r="Y7" s="132">
         <f t="shared" si="0"/>
         <v>45092</v>
       </c>
-      <c r="Z7" s="152">
+      <c r="Z7" s="132">
         <f t="shared" si="0"/>
         <v>45093</v>
       </c>
-      <c r="AA7" s="152">
+      <c r="AA7" s="132">
         <f t="shared" si="0"/>
         <v>45094</v>
       </c>
-      <c r="AB7" s="152">
+      <c r="AB7" s="132">
         <f t="shared" si="0"/>
         <v>45095</v>
       </c>
-      <c r="AC7" s="152">
+      <c r="AC7" s="132">
         <f t="shared" si="0"/>
         <v>45096</v>
       </c>
-      <c r="AD7" s="152">
+      <c r="AD7" s="132">
         <f>AC7+1</f>
         <v>45097</v>
       </c>
-      <c r="AE7" s="152">
+      <c r="AE7" s="132">
         <f>AD7+1</f>
         <v>45098</v>
       </c>
-      <c r="AF7" s="152">
+      <c r="AF7" s="132">
         <f t="shared" si="0"/>
         <v>45099</v>
       </c>
-      <c r="AG7" s="152">
+      <c r="AG7" s="132">
         <f t="shared" si="0"/>
         <v>45100</v>
       </c>
@@ -3731,32 +3733,32 @@
       <c r="E8" s="68"/>
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="152"/>
-      <c r="K8" s="152"/>
-      <c r="L8" s="152"/>
-      <c r="M8" s="152"/>
-      <c r="N8" s="152"/>
-      <c r="O8" s="152"/>
-      <c r="P8" s="152"/>
-      <c r="Q8" s="152"/>
-      <c r="R8" s="152"/>
-      <c r="S8" s="152"/>
-      <c r="T8" s="152"/>
-      <c r="U8" s="152"/>
-      <c r="V8" s="152"/>
-      <c r="W8" s="152"/>
-      <c r="X8" s="152"/>
-      <c r="Y8" s="152"/>
-      <c r="Z8" s="152"/>
-      <c r="AA8" s="152"/>
-      <c r="AB8" s="152"/>
-      <c r="AC8" s="152"/>
-      <c r="AD8" s="152"/>
-      <c r="AE8" s="152"/>
-      <c r="AF8" s="152"/>
-      <c r="AG8" s="152"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="132"/>
+      <c r="T8" s="132"/>
+      <c r="U8" s="132"/>
+      <c r="V8" s="132"/>
+      <c r="W8" s="132"/>
+      <c r="X8" s="132"/>
+      <c r="Y8" s="132"/>
+      <c r="Z8" s="132"/>
+      <c r="AA8" s="132"/>
+      <c r="AB8" s="132"/>
+      <c r="AC8" s="132"/>
+      <c r="AD8" s="132"/>
+      <c r="AE8" s="132"/>
+      <c r="AF8" s="132"/>
+      <c r="AG8" s="132"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -3778,104 +3780,104 @@
       <c r="G9" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="149"/>
-      <c r="I9" s="153" t="str">
+      <c r="H9" s="129"/>
+      <c r="I9" s="133" t="str">
         <f t="shared" ref="I9:AG9" si="1">LEFT(TEXT(I7,"ddd"),1)</f>
         <v>m</v>
       </c>
-      <c r="J9" s="153" t="str">
+      <c r="J9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>m</v>
       </c>
-      <c r="K9" s="153" t="str">
+      <c r="K9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>j</v>
       </c>
-      <c r="L9" s="153" t="str">
+      <c r="L9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>v</v>
       </c>
-      <c r="M9" s="153" t="str">
+      <c r="M9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>s</v>
       </c>
-      <c r="N9" s="153" t="str">
+      <c r="N9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>d</v>
       </c>
-      <c r="O9" s="153" t="str">
+      <c r="O9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>l</v>
       </c>
-      <c r="P9" s="153" t="str">
+      <c r="P9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>m</v>
       </c>
-      <c r="Q9" s="153" t="str">
+      <c r="Q9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>m</v>
       </c>
-      <c r="R9" s="153" t="str">
+      <c r="R9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>j</v>
       </c>
-      <c r="S9" s="153" t="str">
+      <c r="S9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>v</v>
       </c>
-      <c r="T9" s="153" t="str">
+      <c r="T9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>s</v>
       </c>
-      <c r="U9" s="153" t="str">
+      <c r="U9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>d</v>
       </c>
-      <c r="V9" s="153" t="str">
+      <c r="V9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>l</v>
       </c>
-      <c r="W9" s="153" t="str">
+      <c r="W9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>m</v>
       </c>
-      <c r="X9" s="153" t="str">
+      <c r="X9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>m</v>
       </c>
-      <c r="Y9" s="153" t="str">
+      <c r="Y9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>j</v>
       </c>
-      <c r="Z9" s="153" t="str">
+      <c r="Z9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>v</v>
       </c>
-      <c r="AA9" s="153" t="str">
+      <c r="AA9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>s</v>
       </c>
-      <c r="AB9" s="153" t="str">
+      <c r="AB9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>d</v>
       </c>
-      <c r="AC9" s="153" t="str">
+      <c r="AC9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>l</v>
       </c>
-      <c r="AD9" s="153" t="str">
+      <c r="AD9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>m</v>
       </c>
-      <c r="AE9" s="153" t="str">
+      <c r="AE9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>m</v>
       </c>
-      <c r="AF9" s="153" t="str">
+      <c r="AF9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>j</v>
       </c>
-      <c r="AG9" s="153" t="str">
+      <c r="AG9" s="133" t="str">
         <f t="shared" si="1"/>
         <v>v</v>
       </c>
@@ -3925,103 +3927,103 @@
       <c r="G11" s="56"/>
       <c r="H11" s="53"/>
       <c r="I11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ref="I11:R13" si="2">IF(AND($C11="Objetivo",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="J11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",J$7&gt;=$F11,J$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",J$7&gt;=$F11,J$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",K$7&gt;=$F11,K$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",K$7&gt;=$F11,K$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",L$7&gt;=$F11,L$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",L$7&gt;=$F11,L$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",M$7&gt;=$F11,M$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",M$7&gt;=$F11,M$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",N$7&gt;=$F11,N$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",N$7&gt;=$F11,N$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",O$7&gt;=$F11,O$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",O$7&gt;=$F11,O$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",P$7&gt;=$F11,P$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",P$7&gt;=$F11,P$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",Q$7&gt;=$F11,Q$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",Q$7&gt;=$F11,Q$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",R$7&gt;=$F11,R$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",R$7&gt;=$F11,R$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",S$7&gt;=$F11,S$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",S$7&gt;=$F11,S$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ref="S11:AG13" si="3">IF(AND($C11="Objetivo",S$7&gt;=$F11,S$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",S$7&gt;=$F11,S$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="T11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",T$7&gt;=$F11,T$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",T$7&gt;=$F11,T$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="U11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",U$7&gt;=$F11,U$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",U$7&gt;=$F11,U$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",V$7&gt;=$F11,V$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",V$7&gt;=$F11,V$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="W11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",W$7&gt;=$F11,W$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",W$7&gt;=$F11,W$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="X11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",X$7&gt;=$F11,X$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",X$7&gt;=$F11,X$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Y11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",Y$7&gt;=$F11,Y$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",Y$7&gt;=$F11,Y$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Z11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",Z$7&gt;=$F11,Z$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",Z$7&gt;=$F11,Z$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",AA$7&gt;=$F11,AA$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",AA$7&gt;=$F11,AA$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AB11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",AB$7&gt;=$F11,AB$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",AB$7&gt;=$F11,AB$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AC11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",AC$7&gt;=$F11,AC$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",AC$7&gt;=$F11,AC$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AD11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",AD$7&gt;=$F11,AD$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",AD$7&gt;=$F11,AD$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AE11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",AE$7&gt;=$F11,AE$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",AE$7&gt;=$F11,AE$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AF11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",AF$7&gt;=$F11,AF$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",AF$7&gt;=$F11,AF$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AG11" s="24" t="str">
-        <f>IF(AND($C11="Objetivo",AG$7&gt;=$F11,AG$7&lt;=$F11+$G11-1),2,IF(AND($C11="Hito",AG$7&gt;=$F11,AG$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4047,103 +4049,103 @@
       </c>
       <c r="H12" s="53"/>
       <c r="I12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",J$7&gt;=$F12,J$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",J$7&gt;=$F12,J$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",K$7&gt;=$F12,K$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",K$7&gt;=$F12,K$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",L$7&gt;=$F12,L$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",L$7&gt;=$F12,L$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",M$7&gt;=$F12,M$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",M$7&gt;=$F12,M$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",N$7&gt;=$F12,N$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",N$7&gt;=$F12,N$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",O$7&gt;=$F12,O$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",O$7&gt;=$F12,O$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",P$7&gt;=$F12,P$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",P$7&gt;=$F12,P$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",Q$7&gt;=$F12,Q$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",Q$7&gt;=$F12,Q$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",R$7&gt;=$F12,R$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",R$7&gt;=$F12,R$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",S$7&gt;=$F12,S$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",S$7&gt;=$F12,S$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",T$7&gt;=$F12,T$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",T$7&gt;=$F12,T$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="U12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",U$7&gt;=$F12,U$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",U$7&gt;=$F12,U$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",V$7&gt;=$F12,V$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",V$7&gt;=$F12,V$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="W12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",W$7&gt;=$F12,W$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",W$7&gt;=$F12,W$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="X12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",X$7&gt;=$F12,X$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",X$7&gt;=$F12,X$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Y12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",Y$7&gt;=$F12,Y$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",Y$7&gt;=$F12,Y$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Z12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",Z$7&gt;=$F12,Z$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",Z$7&gt;=$F12,Z$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",AA$7&gt;=$F12,AA$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",AA$7&gt;=$F12,AA$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AB12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",AB$7&gt;=$F12,AB$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",AB$7&gt;=$F12,AB$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AC12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",AC$7&gt;=$F12,AC$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",AC$7&gt;=$F12,AC$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AD12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",AD$7&gt;=$F12,AD$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",AD$7&gt;=$F12,AD$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AE12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",AE$7&gt;=$F12,AE$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",AE$7&gt;=$F12,AE$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AF12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",AF$7&gt;=$F12,AF$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",AF$7&gt;=$F12,AF$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AG12" s="24" t="str">
-        <f>IF(AND($C12="Objetivo",AG$7&gt;=$F12,AG$7&lt;=$F12+$G12-1),2,IF(AND($C12="Hito",AG$7&gt;=$F12,AG$7&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4169,103 +4171,103 @@
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",J$7&gt;=$F13,J$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",J$7&gt;=$F13,J$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",K$7&gt;=$F13,K$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",K$7&gt;=$F13,K$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",L$7&gt;=$F13,L$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",L$7&gt;=$F13,L$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",M$7&gt;=$F13,M$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",M$7&gt;=$F13,M$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",N$7&gt;=$F13,N$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",N$7&gt;=$F13,N$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",O$7&gt;=$F13,O$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",O$7&gt;=$F13,O$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",P$7&gt;=$F13,P$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",P$7&gt;=$F13,P$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",Q$7&gt;=$F13,Q$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",Q$7&gt;=$F13,Q$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",R$7&gt;=$F13,R$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",R$7&gt;=$F13,R$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",S$7&gt;=$F13,S$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",S$7&gt;=$F13,S$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",T$7&gt;=$F13,T$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",T$7&gt;=$F13,T$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="U13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",U$7&gt;=$F13,U$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",U$7&gt;=$F13,U$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",V$7&gt;=$F13,V$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",V$7&gt;=$F13,V$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="W13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",W$7&gt;=$F13,W$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",W$7&gt;=$F13,W$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="X13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",X$7&gt;=$F13,X$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",X$7&gt;=$F13,X$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Y13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",Y$7&gt;=$F13,Y$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",Y$7&gt;=$F13,Y$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Z13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",Z$7&gt;=$F13,Z$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",Z$7&gt;=$F13,Z$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",AA$7&gt;=$F13,AA$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",AA$7&gt;=$F13,AA$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AB13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",AB$7&gt;=$F13,AB$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",AB$7&gt;=$F13,AB$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AC13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",AC$7&gt;=$F13,AC$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",AC$7&gt;=$F13,AC$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AD13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",AD$7&gt;=$F13,AD$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",AD$7&gt;=$F13,AD$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AE13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",AE$7&gt;=$F13,AE$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",AE$7&gt;=$F13,AE$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AF13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",AF$7&gt;=$F13,AF$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",AF$7&gt;=$F13,AF$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AG13" s="24" t="str">
-        <f>IF(AND($C13="Objetivo",AG$7&gt;=$F13,AG$7&lt;=$F13+$G13-1),2,IF(AND($C13="Hito",AG$7&gt;=$F13,AG$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4290,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="53"/>
-      <c r="I14" s="147"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
@@ -4338,103 +4340,103 @@
       </c>
       <c r="H15" s="53"/>
       <c r="I15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ref="I15:R22" si="4">IF(AND($C15="Objetivo",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="J15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",J$7&gt;=$F15,J$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",J$7&gt;=$F15,J$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",K$7&gt;=$F15,K$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",K$7&gt;=$F15,K$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",L$7&gt;=$F15,L$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",L$7&gt;=$F15,L$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",M$7&gt;=$F15,M$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",M$7&gt;=$F15,M$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",N$7&gt;=$F15,N$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",N$7&gt;=$F15,N$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",O$7&gt;=$F15,O$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",O$7&gt;=$F15,O$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",P$7&gt;=$F15,P$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",P$7&gt;=$F15,P$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",Q$7&gt;=$F15,Q$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",Q$7&gt;=$F15,Q$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",S$7&gt;=$F15,S$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",S$7&gt;=$F15,S$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ref="S15:AG22" si="5">IF(AND($C15="Objetivo",S$7&gt;=$F15,S$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",S$7&gt;=$F15,S$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="T15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",T$7&gt;=$F15,T$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",T$7&gt;=$F15,T$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",U$7&gt;=$F15,U$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",U$7&gt;=$F15,U$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",V$7&gt;=$F15,V$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",V$7&gt;=$F15,V$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",W$7&gt;=$F15,W$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",W$7&gt;=$F15,W$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",X$7&gt;=$F15,X$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",X$7&gt;=$F15,X$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",Y$7&gt;=$F15,Y$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",Y$7&gt;=$F15,Y$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",Z$7&gt;=$F15,Z$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",Z$7&gt;=$F15,Z$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AA15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",AA$7&gt;=$F15,AA$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",AA$7&gt;=$F15,AA$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AB15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",AB$7&gt;=$F15,AB$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",AB$7&gt;=$F15,AB$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",AC$7&gt;=$F15,AC$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",AC$7&gt;=$F15,AC$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",AD$7&gt;=$F15,AD$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",AD$7&gt;=$F15,AD$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AE15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",AE$7&gt;=$F15,AE$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",AE$7&gt;=$F15,AE$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",AF$7&gt;=$F15,AF$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",AF$7&gt;=$F15,AF$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AG15" s="24" t="str">
-        <f>IF(AND($C15="Objetivo",AG$7&gt;=$F15,AG$7&lt;=$F15+$G15-1),2,IF(AND($C15="Hito",AG$7&gt;=$F15,AG$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4460,103 +4462,103 @@
       </c>
       <c r="H16" s="53"/>
       <c r="I16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",J$7&gt;=$F16,J$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",J$7&gt;=$F16,J$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",K$7&gt;=$F16,K$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",K$7&gt;=$F16,K$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",L$7&gt;=$F16,L$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",L$7&gt;=$F16,L$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",M$7&gt;=$F16,M$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",M$7&gt;=$F16,M$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",N$7&gt;=$F16,N$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",N$7&gt;=$F16,N$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",O$7&gt;=$F16,O$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",O$7&gt;=$F16,O$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",P$7&gt;=$F16,P$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",P$7&gt;=$F16,P$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",Q$7&gt;=$F16,Q$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",Q$7&gt;=$F16,Q$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",R$7&gt;=$F16,R$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",R$7&gt;=$F16,R$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",S$7&gt;=$F16,S$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",S$7&gt;=$F16,S$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",T$7&gt;=$F16,T$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",T$7&gt;=$F16,T$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",U$7&gt;=$F16,U$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",U$7&gt;=$F16,U$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",V$7&gt;=$F16,V$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",V$7&gt;=$F16,V$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",W$7&gt;=$F16,W$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",W$7&gt;=$F16,W$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",X$7&gt;=$F16,X$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",X$7&gt;=$F16,X$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",Y$7&gt;=$F16,Y$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",Y$7&gt;=$F16,Y$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",Z$7&gt;=$F16,Z$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",Z$7&gt;=$F16,Z$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AA16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",AA$7&gt;=$F16,AA$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",AA$7&gt;=$F16,AA$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AB16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",AB$7&gt;=$F16,AB$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",AB$7&gt;=$F16,AB$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",AC$7&gt;=$F16,AC$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",AC$7&gt;=$F16,AC$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",AD$7&gt;=$F16,AD$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",AD$7&gt;=$F16,AD$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AE16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",AE$7&gt;=$F16,AE$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",AE$7&gt;=$F16,AE$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",AF$7&gt;=$F16,AF$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",AF$7&gt;=$F16,AF$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AG16" s="24" t="str">
-        <f>IF(AND($C16="Objetivo",AG$7&gt;=$F16,AG$7&lt;=$F16+$G16-1),2,IF(AND($C16="Hito",AG$7&gt;=$F16,AG$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4572,7 +4574,7 @@
         <v>46</v>
       </c>
       <c r="E17" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="55">
         <v>45079</v>
@@ -4582,103 +4584,103 @@
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",J$7&gt;=$F17,J$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",J$7&gt;=$F17,J$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",K$7&gt;=$F17,K$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",K$7&gt;=$F17,K$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L17" s="24">
-        <f>IF(AND($C17="Objetivo",L$7&gt;=$F17,L$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",L$7&gt;=$F17,L$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",M$7&gt;=$F17,M$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",M$7&gt;=$F17,M$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",N$7&gt;=$F17,N$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",N$7&gt;=$F17,N$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",O$7&gt;=$F17,O$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",O$7&gt;=$F17,O$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",P$7&gt;=$F17,P$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",P$7&gt;=$F17,P$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",Q$7&gt;=$F17,Q$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",Q$7&gt;=$F17,Q$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",R$7&gt;=$F17,R$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",R$7&gt;=$F17,R$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",S$7&gt;=$F17,S$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",S$7&gt;=$F17,S$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",T$7&gt;=$F17,T$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",T$7&gt;=$F17,T$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",U$7&gt;=$F17,U$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",U$7&gt;=$F17,U$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",V$7&gt;=$F17,V$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",V$7&gt;=$F17,V$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",W$7&gt;=$F17,W$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",W$7&gt;=$F17,W$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",X$7&gt;=$F17,X$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",X$7&gt;=$F17,X$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",Y$7&gt;=$F17,Y$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",Y$7&gt;=$F17,Y$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",Z$7&gt;=$F17,Z$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",Z$7&gt;=$F17,Z$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AA17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",AA$7&gt;=$F17,AA$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",AA$7&gt;=$F17,AA$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AB17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",AB$7&gt;=$F17,AB$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",AB$7&gt;=$F17,AB$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",AC$7&gt;=$F17,AC$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",AC$7&gt;=$F17,AC$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",AD$7&gt;=$F17,AD$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",AD$7&gt;=$F17,AD$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AE17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",AE$7&gt;=$F17,AE$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",AE$7&gt;=$F17,AE$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",AF$7&gt;=$F17,AF$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",AF$7&gt;=$F17,AF$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AG17" s="24" t="str">
-        <f>IF(AND($C17="Objetivo",AG$7&gt;=$F17,AG$7&lt;=$F17+$G17-1),2,IF(AND($C17="Hito",AG$7&gt;=$F17,AG$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4694,107 +4696,107 @@
       <c r="G18" s="56"/>
       <c r="H18" s="53"/>
       <c r="I18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",J$7&gt;=$F18,J$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",J$7&gt;=$F18,J$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",K$7&gt;=$F18,K$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",K$7&gt;=$F18,K$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",L$7&gt;=$F18,L$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",L$7&gt;=$F18,L$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",M$7&gt;=$F18,M$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",M$7&gt;=$F18,M$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",N$7&gt;=$F18,N$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",N$7&gt;=$F18,N$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",O$7&gt;=$F18,O$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",O$7&gt;=$F18,O$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",P$7&gt;=$F18,P$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",P$7&gt;=$F18,P$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",Q$7&gt;=$F18,Q$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",Q$7&gt;=$F18,Q$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",R$7&gt;=$F18,R$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",R$7&gt;=$F18,R$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",S$7&gt;=$F18,S$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",S$7&gt;=$F18,S$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",T$7&gt;=$F18,T$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",T$7&gt;=$F18,T$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",U$7&gt;=$F18,U$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",U$7&gt;=$F18,U$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",V$7&gt;=$F18,V$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",V$7&gt;=$F18,V$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",W$7&gt;=$F18,W$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",W$7&gt;=$F18,W$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",X$7&gt;=$F18,X$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",X$7&gt;=$F18,X$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",Y$7&gt;=$F18,Y$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",Y$7&gt;=$F18,Y$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",Z$7&gt;=$F18,Z$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",Z$7&gt;=$F18,Z$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AA18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",AA$7&gt;=$F18,AA$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",AA$7&gt;=$F18,AA$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AB18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",AB$7&gt;=$F18,AB$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",AB$7&gt;=$F18,AB$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",AC$7&gt;=$F18,AC$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",AC$7&gt;=$F18,AC$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",AD$7&gt;=$F18,AD$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",AD$7&gt;=$F18,AD$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AE18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",AE$7&gt;=$F18,AE$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",AE$7&gt;=$F18,AE$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",AF$7&gt;=$F18,AF$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",AF$7&gt;=$F18,AF$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AG18" s="24" t="str">
-        <f>IF(AND($C18="Objetivo",AG$7&gt;=$F18,AG$7&lt;=$F18+$G18-1),2,IF(AND($C18="Hito",AG$7&gt;=$F18,AG$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" s="1" customFormat="1" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="57" t="s">
         <v>50</v>
@@ -4804,7 +4806,7 @@
       </c>
       <c r="D19" s="53"/>
       <c r="E19" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="55">
         <v>45082</v>
@@ -4814,103 +4816,103 @@
       </c>
       <c r="H19" s="53"/>
       <c r="I19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",I$7&gt;=$F19,I$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",I$7&gt;=$F19,I$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",J$7&gt;=$F19,J$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",J$7&gt;=$F19,J$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",K$7&gt;=$F19,K$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",K$7&gt;=$F19,K$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",L$7&gt;=$F19,L$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",L$7&gt;=$F19,L$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",M$7&gt;=$F19,M$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",M$7&gt;=$F19,M$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",N$7&gt;=$F19,N$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",N$7&gt;=$F19,N$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",O$7&gt;=$F19,O$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",O$7&gt;=$F19,O$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",P$7&gt;=$F19,P$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",P$7&gt;=$F19,P$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",Q$7&gt;=$F19,Q$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",Q$7&gt;=$F19,Q$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",R$7&gt;=$F19,R$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",R$7&gt;=$F19,R$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",S$7&gt;=$F19,S$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",S$7&gt;=$F19,S$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",T$7&gt;=$F19,T$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",T$7&gt;=$F19,T$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",U$7&gt;=$F19,U$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",U$7&gt;=$F19,U$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",V$7&gt;=$F19,V$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",V$7&gt;=$F19,V$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",W$7&gt;=$F19,W$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",W$7&gt;=$F19,W$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",X$7&gt;=$F19,X$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",X$7&gt;=$F19,X$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",Y$7&gt;=$F19,Y$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",Y$7&gt;=$F19,Y$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",Z$7&gt;=$F19,Z$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",Z$7&gt;=$F19,Z$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AA19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",AA$7&gt;=$F19,AA$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",AA$7&gt;=$F19,AA$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AB19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",AB$7&gt;=$F19,AB$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",AB$7&gt;=$F19,AB$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",AC$7&gt;=$F19,AC$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",AC$7&gt;=$F19,AC$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",AD$7&gt;=$F19,AD$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",AD$7&gt;=$F19,AD$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AE19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",AE$7&gt;=$F19,AE$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",AE$7&gt;=$F19,AE$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",AF$7&gt;=$F19,AF$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",AF$7&gt;=$F19,AF$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AG19" s="24" t="str">
-        <f>IF(AND($C19="Objetivo",AG$7&gt;=$F19,AG$7&lt;=$F19+$G19-1),2,IF(AND($C19="Hito",AG$7&gt;=$F19,AG$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4924,7 +4926,7 @@
       </c>
       <c r="D20" s="53"/>
       <c r="E20" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="55">
         <v>45082</v>
@@ -4934,103 +4936,103 @@
       </c>
       <c r="H20" s="53"/>
       <c r="I20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",J$7&gt;=$F20,J$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",J$7&gt;=$F20,J$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",K$7&gt;=$F20,K$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",K$7&gt;=$F20,K$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",L$7&gt;=$F20,L$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",L$7&gt;=$F20,L$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",M$7&gt;=$F20,M$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",M$7&gt;=$F20,M$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",N$7&gt;=$F20,N$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",N$7&gt;=$F20,N$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",O$7&gt;=$F20,O$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",O$7&gt;=$F20,O$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",P$7&gt;=$F20,P$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",P$7&gt;=$F20,P$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",Q$7&gt;=$F20,Q$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",Q$7&gt;=$F20,Q$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",R$7&gt;=$F20,R$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",R$7&gt;=$F20,R$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",S$7&gt;=$F20,S$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",S$7&gt;=$F20,S$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",T$7&gt;=$F20,T$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",T$7&gt;=$F20,T$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",U$7&gt;=$F20,U$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",U$7&gt;=$F20,U$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",V$7&gt;=$F20,V$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",V$7&gt;=$F20,V$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",W$7&gt;=$F20,W$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",W$7&gt;=$F20,W$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",X$7&gt;=$F20,X$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",X$7&gt;=$F20,X$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",Y$7&gt;=$F20,Y$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",Y$7&gt;=$F20,Y$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",Z$7&gt;=$F20,Z$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",Z$7&gt;=$F20,Z$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AA20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",AA$7&gt;=$F20,AA$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",AA$7&gt;=$F20,AA$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AB20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",AB$7&gt;=$F20,AB$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",AB$7&gt;=$F20,AB$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",AC$7&gt;=$F20,AC$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",AC$7&gt;=$F20,AC$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",AD$7&gt;=$F20,AD$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",AD$7&gt;=$F20,AD$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AE20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",AE$7&gt;=$F20,AE$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",AE$7&gt;=$F20,AE$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",AF$7&gt;=$F20,AF$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",AF$7&gt;=$F20,AF$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AG20" s="24" t="str">
-        <f>IF(AND($C20="Objetivo",AG$7&gt;=$F20,AG$7&lt;=$F20+$G20-1),2,IF(AND($C20="Hito",AG$7&gt;=$F20,AG$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5044,7 +5046,7 @@
       </c>
       <c r="D21" s="53"/>
       <c r="E21" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="55">
         <v>45083</v>
@@ -5054,103 +5056,103 @@
       </c>
       <c r="H21" s="53"/>
       <c r="I21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",I$7&gt;=$F21,I$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",I$7&gt;=$F21,I$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",J$7&gt;=$F21,J$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",J$7&gt;=$F21,J$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",K$7&gt;=$F21,K$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",K$7&gt;=$F21,K$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",L$7&gt;=$F21,L$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",L$7&gt;=$F21,L$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",M$7&gt;=$F21,M$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",M$7&gt;=$F21,M$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",N$7&gt;=$F21,N$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",N$7&gt;=$F21,N$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",O$7&gt;=$F21,O$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",O$7&gt;=$F21,O$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",P$7&gt;=$F21,P$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",P$7&gt;=$F21,P$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",Q$7&gt;=$F21,Q$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",Q$7&gt;=$F21,Q$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",R$7&gt;=$F21,R$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",R$7&gt;=$F21,R$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",S$7&gt;=$F21,S$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",S$7&gt;=$F21,S$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",T$7&gt;=$F21,T$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",T$7&gt;=$F21,T$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",U$7&gt;=$F21,U$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",U$7&gt;=$F21,U$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",V$7&gt;=$F21,V$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",V$7&gt;=$F21,V$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",W$7&gt;=$F21,W$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",W$7&gt;=$F21,W$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",X$7&gt;=$F21,X$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",X$7&gt;=$F21,X$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",Y$7&gt;=$F21,Y$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",Y$7&gt;=$F21,Y$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",Z$7&gt;=$F21,Z$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",Z$7&gt;=$F21,Z$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AA21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",AA$7&gt;=$F21,AA$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",AA$7&gt;=$F21,AA$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AB21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",AB$7&gt;=$F21,AB$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",AB$7&gt;=$F21,AB$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",AC$7&gt;=$F21,AC$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",AC$7&gt;=$F21,AC$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",AD$7&gt;=$F21,AD$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",AD$7&gt;=$F21,AD$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AE21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",AE$7&gt;=$F21,AE$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",AE$7&gt;=$F21,AE$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",AF$7&gt;=$F21,AF$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",AF$7&gt;=$F21,AF$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AG21" s="24" t="str">
-        <f>IF(AND($C21="Objetivo",AG$7&gt;=$F21,AG$7&lt;=$F21+$G21-1),2,IF(AND($C21="Hito",AG$7&gt;=$F21,AG$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5164,7 +5166,7 @@
       </c>
       <c r="D22" s="53"/>
       <c r="E22" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="55">
         <v>45084</v>
@@ -5174,103 +5176,103 @@
       </c>
       <c r="H22" s="53"/>
       <c r="I22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",I$7&gt;=$F22,I$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",I$7&gt;=$F22,I$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",J$7&gt;=$F22,J$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",J$7&gt;=$F22,J$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",K$7&gt;=$F22,K$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",K$7&gt;=$F22,K$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",L$7&gt;=$F22,L$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",L$7&gt;=$F22,L$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",M$7&gt;=$F22,M$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",M$7&gt;=$F22,M$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",N$7&gt;=$F22,N$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",N$7&gt;=$F22,N$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",O$7&gt;=$F22,O$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",O$7&gt;=$F22,O$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",P$7&gt;=$F22,P$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",P$7&gt;=$F22,P$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",Q$7&gt;=$F22,Q$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",Q$7&gt;=$F22,Q$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",R$7&gt;=$F22,R$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",R$7&gt;=$F22,R$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",S$7&gt;=$F22,S$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",S$7&gt;=$F22,S$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",T$7&gt;=$F22,T$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",T$7&gt;=$F22,T$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",U$7&gt;=$F22,U$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",U$7&gt;=$F22,U$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",V$7&gt;=$F22,V$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",V$7&gt;=$F22,V$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",W$7&gt;=$F22,W$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",W$7&gt;=$F22,W$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",X$7&gt;=$F22,X$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",X$7&gt;=$F22,X$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",Y$7&gt;=$F22,Y$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",Y$7&gt;=$F22,Y$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",Z$7&gt;=$F22,Z$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",Z$7&gt;=$F22,Z$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AA22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",AA$7&gt;=$F22,AA$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",AA$7&gt;=$F22,AA$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AB22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",AB$7&gt;=$F22,AB$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",AB$7&gt;=$F22,AB$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",AC$7&gt;=$F22,AC$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",AC$7&gt;=$F22,AC$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",AD$7&gt;=$F22,AD$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",AD$7&gt;=$F22,AD$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AE22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",AE$7&gt;=$F22,AE$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",AE$7&gt;=$F22,AE$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",AF$7&gt;=$F22,AF$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",AF$7&gt;=$F22,AF$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AG22" s="24" t="str">
-        <f>IF(AND($C22="Objetivo",AG$7&gt;=$F22,AG$7&lt;=$F22+$G22-1),2,IF(AND($C22="Hito",AG$7&gt;=$F22,AG$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5284,7 +5286,7 @@
       </c>
       <c r="D23" s="53"/>
       <c r="E23" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="55">
         <v>45084</v>
@@ -5339,103 +5341,103 @@
       </c>
       <c r="H24" s="53"/>
       <c r="I24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ref="I24:R35" si="6">IF(AND($C24="Objetivo",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="J24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",J$7&gt;=$F24,J$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",J$7&gt;=$F24,J$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",K$7&gt;=$F24,K$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",K$7&gt;=$F24,K$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",L$7&gt;=$F24,L$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",L$7&gt;=$F24,L$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",M$7&gt;=$F24,M$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",M$7&gt;=$F24,M$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",N$7&gt;=$F24,N$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",N$7&gt;=$F24,N$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",O$7&gt;=$F24,O$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",O$7&gt;=$F24,O$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",P$7&gt;=$F24,P$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",P$7&gt;=$F24,P$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",Q$7&gt;=$F24,Q$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",Q$7&gt;=$F24,Q$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",R$7&gt;=$F24,R$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",R$7&gt;=$F24,R$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S24" s="24">
-        <f>IF(AND($C24="Objetivo",S$7&gt;=$F24,S$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",S$7&gt;=$F24,S$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ref="S24:AG35" si="7">IF(AND($C24="Objetivo",S$7&gt;=$F24,S$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",S$7&gt;=$F24,S$7&lt;=$F24+$G24-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="T24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",T$7&gt;=$F24,T$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",T$7&gt;=$F24,T$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",U$7&gt;=$F24,U$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",U$7&gt;=$F24,U$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",V$7&gt;=$F24,V$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",V$7&gt;=$F24,V$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",W$7&gt;=$F24,W$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",W$7&gt;=$F24,W$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",X$7&gt;=$F24,X$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",X$7&gt;=$F24,X$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",Y$7&gt;=$F24,Y$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",Y$7&gt;=$F24,Y$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",Z$7&gt;=$F24,Z$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",Z$7&gt;=$F24,Z$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",AA$7&gt;=$F24,AA$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",AA$7&gt;=$F24,AA$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",AB$7&gt;=$F24,AB$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",AB$7&gt;=$F24,AB$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",AC$7&gt;=$F24,AC$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",AC$7&gt;=$F24,AC$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",AD$7&gt;=$F24,AD$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",AD$7&gt;=$F24,AD$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",AE$7&gt;=$F24,AE$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",AE$7&gt;=$F24,AE$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",AF$7&gt;=$F24,AF$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",AF$7&gt;=$F24,AF$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG24" s="24" t="str">
-        <f>IF(AND($C24="Objetivo",AG$7&gt;=$F24,AG$7&lt;=$F24+$G24-1),2,IF(AND($C24="Hito",AG$7&gt;=$F24,AG$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5451,103 +5453,103 @@
       <c r="G25" s="56"/>
       <c r="H25" s="53"/>
       <c r="I25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",J$7&gt;=$F25,J$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",J$7&gt;=$F25,J$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",K$7&gt;=$F25,K$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",K$7&gt;=$F25,K$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",L$7&gt;=$F25,L$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",L$7&gt;=$F25,L$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",M$7&gt;=$F25,M$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",M$7&gt;=$F25,M$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",N$7&gt;=$F25,N$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",N$7&gt;=$F25,N$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",O$7&gt;=$F25,O$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",O$7&gt;=$F25,O$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",P$7&gt;=$F25,P$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",P$7&gt;=$F25,P$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",Q$7&gt;=$F25,Q$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",Q$7&gt;=$F25,Q$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",R$7&gt;=$F25,R$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",R$7&gt;=$F25,R$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",S$7&gt;=$F25,S$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",S$7&gt;=$F25,S$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",T$7&gt;=$F25,T$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",T$7&gt;=$F25,T$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",U$7&gt;=$F25,U$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",U$7&gt;=$F25,U$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",V$7&gt;=$F25,V$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",V$7&gt;=$F25,V$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",W$7&gt;=$F25,W$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",W$7&gt;=$F25,W$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",X$7&gt;=$F25,X$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",X$7&gt;=$F25,X$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",Y$7&gt;=$F25,Y$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",Y$7&gt;=$F25,Y$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",Z$7&gt;=$F25,Z$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",Z$7&gt;=$F25,Z$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",AA$7&gt;=$F25,AA$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",AA$7&gt;=$F25,AA$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",AB$7&gt;=$F25,AB$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",AB$7&gt;=$F25,AB$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",AC$7&gt;=$F25,AC$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",AC$7&gt;=$F25,AC$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",AD$7&gt;=$F25,AD$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",AD$7&gt;=$F25,AD$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",AE$7&gt;=$F25,AE$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",AE$7&gt;=$F25,AE$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",AF$7&gt;=$F25,AF$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",AF$7&gt;=$F25,AF$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG25" s="24" t="str">
-        <f>IF(AND($C25="Objetivo",AG$7&gt;=$F25,AG$7&lt;=$F25+$G25-1),2,IF(AND($C25="Hito",AG$7&gt;=$F25,AG$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5571,103 +5573,103 @@
       </c>
       <c r="H26" s="53"/>
       <c r="I26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",J$7&gt;=$F26,J$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",J$7&gt;=$F26,J$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",K$7&gt;=$F26,K$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",K$7&gt;=$F26,K$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",L$7&gt;=$F26,L$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",L$7&gt;=$F26,L$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",M$7&gt;=$F26,M$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",M$7&gt;=$F26,M$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",N$7&gt;=$F26,N$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",N$7&gt;=$F26,N$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",O$7&gt;=$F26,O$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",O$7&gt;=$F26,O$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",P$7&gt;=$F26,P$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",P$7&gt;=$F26,P$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",Q$7&gt;=$F26,Q$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",Q$7&gt;=$F26,Q$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",R$7&gt;=$F26,R$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",R$7&gt;=$F26,R$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",T$7&gt;=$F26,T$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",T$7&gt;=$F26,T$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",U$7&gt;=$F26,U$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",U$7&gt;=$F26,U$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",V$7&gt;=$F26,V$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",V$7&gt;=$F26,V$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",W$7&gt;=$F26,W$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",W$7&gt;=$F26,W$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",X$7&gt;=$F26,X$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",X$7&gt;=$F26,X$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",Y$7&gt;=$F26,Y$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",Y$7&gt;=$F26,Y$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",Z$7&gt;=$F26,Z$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",Z$7&gt;=$F26,Z$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",AA$7&gt;=$F26,AA$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",AA$7&gt;=$F26,AA$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",AB$7&gt;=$F26,AB$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",AB$7&gt;=$F26,AB$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",AD$7&gt;=$F26,AD$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",AD$7&gt;=$F26,AD$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",AE$7&gt;=$F26,AE$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",AE$7&gt;=$F26,AE$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",AF$7&gt;=$F26,AF$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",AF$7&gt;=$F26,AF$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG26" s="24" t="str">
-        <f>IF(AND($C26="Objetivo",AG$7&gt;=$F26,AG$7&lt;=$F26+$G26-1),2,IF(AND($C26="Hito",AG$7&gt;=$F26,AG$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5691,103 +5693,103 @@
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",J$7&gt;=$F27,J$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",J$7&gt;=$F27,J$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",K$7&gt;=$F27,K$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",K$7&gt;=$F27,K$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",L$7&gt;=$F27,L$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",L$7&gt;=$F27,L$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",M$7&gt;=$F27,M$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",M$7&gt;=$F27,M$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",N$7&gt;=$F27,N$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",N$7&gt;=$F27,N$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",O$7&gt;=$F27,O$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",O$7&gt;=$F27,O$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",P$7&gt;=$F27,P$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",P$7&gt;=$F27,P$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",Q$7&gt;=$F27,Q$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",Q$7&gt;=$F27,Q$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",R$7&gt;=$F27,R$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",R$7&gt;=$F27,R$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",S$7&gt;=$F27,S$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",S$7&gt;=$F27,S$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",T$7&gt;=$F27,T$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",T$7&gt;=$F27,T$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",U$7&gt;=$F27,U$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",U$7&gt;=$F27,U$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",V$7&gt;=$F27,V$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",V$7&gt;=$F27,V$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",W$7&gt;=$F27,W$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",W$7&gt;=$F27,W$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",X$7&gt;=$F27,X$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",X$7&gt;=$F27,X$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",Z$7&gt;=$F27,Z$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",Z$7&gt;=$F27,Z$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",AA$7&gt;=$F27,AA$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",AA$7&gt;=$F27,AA$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",AB$7&gt;=$F27,AB$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",AB$7&gt;=$F27,AB$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",AC$7&gt;=$F27,AC$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",AC$7&gt;=$F27,AC$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",AD$7&gt;=$F27,AD$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",AD$7&gt;=$F27,AD$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",AE$7&gt;=$F27,AE$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",AE$7&gt;=$F27,AE$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",AF$7&gt;=$F27,AF$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",AF$7&gt;=$F27,AF$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG27" s="24" t="str">
-        <f>IF(AND($C27="Objetivo",AG$7&gt;=$F27,AG$7&lt;=$F27+$G27-1),2,IF(AND($C27="Hito",AG$7&gt;=$F27,AG$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5811,103 +5813,103 @@
       </c>
       <c r="H28" s="53"/>
       <c r="I28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",I$7&gt;=$F28,I$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",I$7&gt;=$F28,I$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",J$7&gt;=$F28,J$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",J$7&gt;=$F28,J$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",K$7&gt;=$F28,K$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",K$7&gt;=$F28,K$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",L$7&gt;=$F28,L$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",L$7&gt;=$F28,L$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",M$7&gt;=$F28,M$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",M$7&gt;=$F28,M$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",N$7&gt;=$F28,N$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",N$7&gt;=$F28,N$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",O$7&gt;=$F28,O$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",O$7&gt;=$F28,O$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",P$7&gt;=$F28,P$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",P$7&gt;=$F28,P$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",Q$7&gt;=$F28,Q$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",Q$7&gt;=$F28,Q$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",R$7&gt;=$F28,R$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",R$7&gt;=$F28,R$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",S$7&gt;=$F28,S$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",S$7&gt;=$F28,S$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",T$7&gt;=$F28,T$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",T$7&gt;=$F28,T$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",U$7&gt;=$F28,U$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",U$7&gt;=$F28,U$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",V$7&gt;=$F28,V$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",V$7&gt;=$F28,V$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",W$7&gt;=$F28,W$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",W$7&gt;=$F28,W$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",X$7&gt;=$F28,X$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",X$7&gt;=$F28,X$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",Y$7&gt;=$F28,Y$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",Y$7&gt;=$F28,Y$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",Z$7&gt;=$F28,Z$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",Z$7&gt;=$F28,Z$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",AA$7&gt;=$F28,AA$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",AA$7&gt;=$F28,AA$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",AB$7&gt;=$F28,AB$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",AB$7&gt;=$F28,AB$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",AC$7&gt;=$F28,AC$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",AC$7&gt;=$F28,AC$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",AD$7&gt;=$F28,AD$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",AD$7&gt;=$F28,AD$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",AE$7&gt;=$F28,AE$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",AE$7&gt;=$F28,AE$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",AF$7&gt;=$F28,AF$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",AF$7&gt;=$F28,AF$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG28" s="24" t="str">
-        <f>IF(AND($C28="Objetivo",AG$7&gt;=$F28,AG$7&lt;=$F28+$G28-1),2,IF(AND($C28="Hito",AG$7&gt;=$F28,AG$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -5931,103 +5933,103 @@
       </c>
       <c r="H29" s="53"/>
       <c r="I29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",J$7&gt;=$F29,J$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",J$7&gt;=$F29,J$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",K$7&gt;=$F29,K$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",K$7&gt;=$F29,K$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",L$7&gt;=$F29,L$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",L$7&gt;=$F29,L$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",M$7&gt;=$F29,M$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",M$7&gt;=$F29,M$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",N$7&gt;=$F29,N$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",N$7&gt;=$F29,N$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",O$7&gt;=$F29,O$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",O$7&gt;=$F29,O$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",P$7&gt;=$F29,P$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",P$7&gt;=$F29,P$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",Q$7&gt;=$F29,Q$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",Q$7&gt;=$F29,Q$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",R$7&gt;=$F29,R$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",R$7&gt;=$F29,R$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",S$7&gt;=$F29,S$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",S$7&gt;=$F29,S$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",T$7&gt;=$F29,T$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",T$7&gt;=$F29,T$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",U$7&gt;=$F29,U$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",U$7&gt;=$F29,U$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",V$7&gt;=$F29,V$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",V$7&gt;=$F29,V$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",W$7&gt;=$F29,W$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",W$7&gt;=$F29,W$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",X$7&gt;=$F29,X$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",X$7&gt;=$F29,X$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",Y$7&gt;=$F29,Y$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",Y$7&gt;=$F29,Y$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z29" s="24">
-        <f>IF(AND($C29="Objetivo",Z$7&gt;=$F29,Z$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",Z$7&gt;=$F29,Z$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AA29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",AA$7&gt;=$F29,AA$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",AA$7&gt;=$F29,AA$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",AB$7&gt;=$F29,AB$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",AB$7&gt;=$F29,AB$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",AC$7&gt;=$F29,AC$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",AC$7&gt;=$F29,AC$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",AD$7&gt;=$F29,AD$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",AD$7&gt;=$F29,AD$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",AE$7&gt;=$F29,AE$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",AE$7&gt;=$F29,AE$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",AF$7&gt;=$F29,AF$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",AF$7&gt;=$F29,AF$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG29" s="24" t="str">
-        <f>IF(AND($C29="Objetivo",AG$7&gt;=$F29,AG$7&lt;=$F29+$G29-1),2,IF(AND($C29="Hito",AG$7&gt;=$F29,AG$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6043,107 +6045,107 @@
       <c r="G30" s="56"/>
       <c r="H30" s="53"/>
       <c r="I30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",J$7&gt;=$F30,J$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",J$7&gt;=$F30,J$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",K$7&gt;=$F30,K$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",K$7&gt;=$F30,K$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",L$7&gt;=$F30,L$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",L$7&gt;=$F30,L$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",M$7&gt;=$F30,M$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",M$7&gt;=$F30,M$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",N$7&gt;=$F30,N$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",N$7&gt;=$F30,N$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",O$7&gt;=$F30,O$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",O$7&gt;=$F30,O$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",P$7&gt;=$F30,P$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",P$7&gt;=$F30,P$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",Q$7&gt;=$F30,Q$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",Q$7&gt;=$F30,Q$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",R$7&gt;=$F30,R$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",R$7&gt;=$F30,R$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",S$7&gt;=$F30,S$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",S$7&gt;=$F30,S$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",T$7&gt;=$F30,T$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",T$7&gt;=$F30,T$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",U$7&gt;=$F30,U$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",U$7&gt;=$F30,U$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",V$7&gt;=$F30,V$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",V$7&gt;=$F30,V$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",W$7&gt;=$F30,W$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",W$7&gt;=$F30,W$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",X$7&gt;=$F30,X$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",X$7&gt;=$F30,X$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",Y$7&gt;=$F30,Y$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",Y$7&gt;=$F30,Y$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",Z$7&gt;=$F30,Z$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",Z$7&gt;=$F30,Z$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",AA$7&gt;=$F30,AA$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",AA$7&gt;=$F30,AA$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",AB$7&gt;=$F30,AB$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",AB$7&gt;=$F30,AB$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",AC$7&gt;=$F30,AC$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",AC$7&gt;=$F30,AC$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",AD$7&gt;=$F30,AD$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",AD$7&gt;=$F30,AD$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",AE$7&gt;=$F30,AE$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",AE$7&gt;=$F30,AE$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",AF$7&gt;=$F30,AF$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",AF$7&gt;=$F30,AF$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG30" s="24" t="str">
-        <f>IF(AND($C30="Objetivo",AG$7&gt;=$F30,AG$7&lt;=$F30+$G30-1),2,IF(AND($C30="Hito",AG$7&gt;=$F30,AG$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" s="1" customFormat="1" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="57" t="s">
         <v>61</v>
@@ -6164,103 +6166,103 @@
       </c>
       <c r="H31" s="53"/>
       <c r="I31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",J$7&gt;=$F31,J$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",J$7&gt;=$F31,J$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",K$7&gt;=$F31,K$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",K$7&gt;=$F31,K$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",L$7&gt;=$F31,L$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",L$7&gt;=$F31,L$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",M$7&gt;=$F31,M$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",M$7&gt;=$F31,M$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",N$7&gt;=$F31,N$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",N$7&gt;=$F31,N$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",O$7&gt;=$F31,O$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",O$7&gt;=$F31,O$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",P$7&gt;=$F31,P$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",P$7&gt;=$F31,P$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",Q$7&gt;=$F31,Q$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",Q$7&gt;=$F31,Q$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",R$7&gt;=$F31,R$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",R$7&gt;=$F31,R$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",S$7&gt;=$F31,S$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",S$7&gt;=$F31,S$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",T$7&gt;=$F31,T$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",T$7&gt;=$F31,T$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",U$7&gt;=$F31,U$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",U$7&gt;=$F31,U$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",V$7&gt;=$F31,V$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",V$7&gt;=$F31,V$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",W$7&gt;=$F31,W$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",W$7&gt;=$F31,W$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",X$7&gt;=$F31,X$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",X$7&gt;=$F31,X$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",Y$7&gt;=$F31,Y$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",Y$7&gt;=$F31,Y$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",Z$7&gt;=$F31,Z$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",Z$7&gt;=$F31,Z$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",AA$7&gt;=$F31,AA$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",AA$7&gt;=$F31,AA$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",AB$7&gt;=$F31,AB$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",AB$7&gt;=$F31,AB$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",AC$7&gt;=$F31,AC$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",AC$7&gt;=$F31,AC$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",AD$7&gt;=$F31,AD$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",AD$7&gt;=$F31,AD$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",AE$7&gt;=$F31,AE$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",AE$7&gt;=$F31,AE$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",AF$7&gt;=$F31,AF$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",AF$7&gt;=$F31,AF$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG31" s="24" t="str">
-        <f>IF(AND($C31="Objetivo",AG$7&gt;=$F31,AG$7&lt;=$F31+$G31-1),2,IF(AND($C31="Hito",AG$7&gt;=$F31,AG$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6284,103 +6286,103 @@
       </c>
       <c r="H32" s="53"/>
       <c r="I32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",J$7&gt;=$F32,J$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",J$7&gt;=$F32,J$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",K$7&gt;=$F32,K$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",K$7&gt;=$F32,K$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",L$7&gt;=$F32,L$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",L$7&gt;=$F32,L$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",M$7&gt;=$F32,M$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",M$7&gt;=$F32,M$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",N$7&gt;=$F32,N$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",N$7&gt;=$F32,N$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",O$7&gt;=$F32,O$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",O$7&gt;=$F32,O$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",P$7&gt;=$F32,P$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",P$7&gt;=$F32,P$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",Q$7&gt;=$F32,Q$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",Q$7&gt;=$F32,Q$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",R$7&gt;=$F32,R$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",R$7&gt;=$F32,R$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",T$7&gt;=$F32,T$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",T$7&gt;=$F32,T$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",U$7&gt;=$F32,U$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",U$7&gt;=$F32,U$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",V$7&gt;=$F32,V$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",V$7&gt;=$F32,V$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",W$7&gt;=$F32,W$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",W$7&gt;=$F32,W$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",X$7&gt;=$F32,X$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",X$7&gt;=$F32,X$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",Y$7&gt;=$F32,Y$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",Y$7&gt;=$F32,Y$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",Z$7&gt;=$F32,Z$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",Z$7&gt;=$F32,Z$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",AA$7&gt;=$F32,AA$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",AA$7&gt;=$F32,AA$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",AB$7&gt;=$F32,AB$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",AB$7&gt;=$F32,AB$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",AD$7&gt;=$F32,AD$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",AD$7&gt;=$F32,AD$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",AE$7&gt;=$F32,AE$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",AE$7&gt;=$F32,AE$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",AF$7&gt;=$F32,AF$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",AF$7&gt;=$F32,AF$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG32" s="24" t="str">
-        <f>IF(AND($C32="Objetivo",AG$7&gt;=$F32,AG$7&lt;=$F32+$G32-1),2,IF(AND($C32="Hito",AG$7&gt;=$F32,AG$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6404,103 +6406,103 @@
       </c>
       <c r="H33" s="53"/>
       <c r="I33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",J$7&gt;=$F33,J$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",J$7&gt;=$F33,J$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",K$7&gt;=$F33,K$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",K$7&gt;=$F33,K$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",L$7&gt;=$F33,L$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",L$7&gt;=$F33,L$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",M$7&gt;=$F33,M$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",M$7&gt;=$F33,M$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",N$7&gt;=$F33,N$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",N$7&gt;=$F33,N$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",O$7&gt;=$F33,O$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",O$7&gt;=$F33,O$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",P$7&gt;=$F33,P$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",P$7&gt;=$F33,P$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",Q$7&gt;=$F33,Q$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",Q$7&gt;=$F33,Q$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",R$7&gt;=$F33,R$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",R$7&gt;=$F33,R$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",S$7&gt;=$F33,S$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",S$7&gt;=$F33,S$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",T$7&gt;=$F33,T$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",T$7&gt;=$F33,T$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",U$7&gt;=$F33,U$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",U$7&gt;=$F33,U$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",V$7&gt;=$F33,V$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",V$7&gt;=$F33,V$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",W$7&gt;=$F33,W$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",W$7&gt;=$F33,W$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",X$7&gt;=$F33,X$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",X$7&gt;=$F33,X$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",Y$7&gt;=$F33,Y$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",Y$7&gt;=$F33,Y$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",Z$7&gt;=$F33,Z$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",Z$7&gt;=$F33,Z$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",AA$7&gt;=$F33,AA$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",AA$7&gt;=$F33,AA$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",AB$7&gt;=$F33,AB$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",AB$7&gt;=$F33,AB$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",AC$7&gt;=$F33,AC$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",AC$7&gt;=$F33,AC$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",AD$7&gt;=$F33,AD$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",AD$7&gt;=$F33,AD$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",AE$7&gt;=$F33,AE$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",AE$7&gt;=$F33,AE$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",AF$7&gt;=$F33,AF$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",AF$7&gt;=$F33,AF$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG33" s="24" t="str">
-        <f>IF(AND($C33="Objetivo",AG$7&gt;=$F33,AG$7&lt;=$F33+$G33-1),2,IF(AND($C33="Hito",AG$7&gt;=$F33,AG$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6524,103 +6526,103 @@
       </c>
       <c r="H34" s="53"/>
       <c r="I34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",I$7&gt;=$F34,I$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",I$7&gt;=$F34,I$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",J$7&gt;=$F34,J$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",J$7&gt;=$F34,J$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",K$7&gt;=$F34,K$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",K$7&gt;=$F34,K$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",L$7&gt;=$F34,L$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",L$7&gt;=$F34,L$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",M$7&gt;=$F34,M$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",M$7&gt;=$F34,M$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",N$7&gt;=$F34,N$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",N$7&gt;=$F34,N$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",O$7&gt;=$F34,O$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",O$7&gt;=$F34,O$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",P$7&gt;=$F34,P$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",P$7&gt;=$F34,P$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",Q$7&gt;=$F34,Q$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",Q$7&gt;=$F34,Q$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",R$7&gt;=$F34,R$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",R$7&gt;=$F34,R$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",S$7&gt;=$F34,S$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",S$7&gt;=$F34,S$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",T$7&gt;=$F34,T$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",T$7&gt;=$F34,T$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",U$7&gt;=$F34,U$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",U$7&gt;=$F34,U$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",V$7&gt;=$F34,V$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",V$7&gt;=$F34,V$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",W$7&gt;=$F34,W$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",W$7&gt;=$F34,W$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",X$7&gt;=$F34,X$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",X$7&gt;=$F34,X$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",Y$7&gt;=$F34,Y$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",Y$7&gt;=$F34,Y$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",Z$7&gt;=$F34,Z$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",Z$7&gt;=$F34,Z$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",AA$7&gt;=$F34,AA$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",AA$7&gt;=$F34,AA$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",AB$7&gt;=$F34,AB$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",AB$7&gt;=$F34,AB$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",AC$7&gt;=$F34,AC$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",AC$7&gt;=$F34,AC$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",AD$7&gt;=$F34,AD$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",AD$7&gt;=$F34,AD$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",AE$7&gt;=$F34,AE$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",AE$7&gt;=$F34,AE$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",AF$7&gt;=$F34,AF$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",AF$7&gt;=$F34,AF$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG34" s="24" t="str">
-        <f>IF(AND($C34="Objetivo",AG$7&gt;=$F34,AG$7&lt;=$F34+$G34-1),2,IF(AND($C34="Hito",AG$7&gt;=$F34,AG$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6644,103 +6646,103 @@
       </c>
       <c r="H35" s="53"/>
       <c r="I35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",J$7&gt;=$F35,J$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",J$7&gt;=$F35,J$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",K$7&gt;=$F35,K$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",K$7&gt;=$F35,K$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",L$7&gt;=$F35,L$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",L$7&gt;=$F35,L$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",M$7&gt;=$F35,M$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",M$7&gt;=$F35,M$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",N$7&gt;=$F35,N$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",N$7&gt;=$F35,N$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",O$7&gt;=$F35,O$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",O$7&gt;=$F35,O$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",P$7&gt;=$F35,P$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",P$7&gt;=$F35,P$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",Q$7&gt;=$F35,Q$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",Q$7&gt;=$F35,Q$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",R$7&gt;=$F35,R$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",R$7&gt;=$F35,R$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",S$7&gt;=$F35,S$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",S$7&gt;=$F35,S$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",T$7&gt;=$F35,T$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",T$7&gt;=$F35,T$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",U$7&gt;=$F35,U$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",U$7&gt;=$F35,U$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",V$7&gt;=$F35,V$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",V$7&gt;=$F35,V$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",W$7&gt;=$F35,W$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",W$7&gt;=$F35,W$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",X$7&gt;=$F35,X$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",X$7&gt;=$F35,X$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",Y$7&gt;=$F35,Y$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",Y$7&gt;=$F35,Y$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",Z$7&gt;=$F35,Z$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",Z$7&gt;=$F35,Z$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",AA$7&gt;=$F35,AA$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",AA$7&gt;=$F35,AA$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",AB$7&gt;=$F35,AB$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",AB$7&gt;=$F35,AB$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",AC$7&gt;=$F35,AC$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",AC$7&gt;=$F35,AC$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",AD$7&gt;=$F35,AD$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",AD$7&gt;=$F35,AD$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",AE$7&gt;=$F35,AE$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",AE$7&gt;=$F35,AE$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF35" s="24" t="str">
-        <f>IF(AND($C35="Objetivo",AF$7&gt;=$F35,AF$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",AF$7&gt;=$F35,AF$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG35" s="24">
-        <f>IF(AND($C35="Objetivo",AG$7&gt;=$F35,AG$7&lt;=$F35+$G35-1),2,IF(AND($C35="Hito",AG$7&gt;=$F35,AG$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6848,39 +6850,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:AG37">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="42" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AG6">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="41" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:AG6">
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="40" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AG6">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:AG36">
-    <cfRule type="expression" dxfId="22" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="7" stopIfTrue="1">
       <formula>AND($C10="Riesgo bajo",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="8" stopIfTrue="1">
       <formula>AND($C10="Riesgo alto",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="9" stopIfTrue="1">
       <formula>AND($C10="Según lo previsto",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
       <formula>AND($C10="Riesgo medio",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7037,13 +7039,13 @@
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="140">
+      <c r="B2" s="123">
         <v>45076</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
       </c>
-      <c r="D2" s="140">
+      <c r="D2" s="123">
         <v>45079</v>
       </c>
     </row>
@@ -7051,13 +7053,13 @@
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="140">
+      <c r="B3" s="123">
         <v>45082</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="140">
+      <c r="D3" s="123">
         <v>45086</v>
       </c>
     </row>
@@ -7065,13 +7067,13 @@
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="140">
+      <c r="B4" s="123">
         <v>45089</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="140">
+      <c r="D4" s="123">
         <v>45093</v>
       </c>
     </row>
@@ -7079,13 +7081,13 @@
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="140">
+      <c r="B5" s="123">
         <v>45096</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="140">
+      <c r="D5" s="123">
         <v>45100</v>
       </c>
     </row>
@@ -7118,27 +7120,27 @@
     <row r="1" spans="1:68" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
@@ -7265,40 +7267,40 @@
         <v>30</v>
       </c>
       <c r="H4" s="27"/>
-      <c r="I4" s="130" t="s">
+      <c r="I4" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
       <c r="M4" s="30"/>
-      <c r="N4" s="131" t="s">
+      <c r="N4" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="132" t="s">
+      <c r="S4" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
+      <c r="T4" s="149"/>
+      <c r="U4" s="149"/>
+      <c r="V4" s="149"/>
       <c r="W4" s="30"/>
-      <c r="X4" s="125" t="s">
+      <c r="X4" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
+      <c r="Y4" s="141"/>
+      <c r="Z4" s="141"/>
+      <c r="AA4" s="141"/>
       <c r="AB4" s="30"/>
-      <c r="AC4" s="126" t="s">
+      <c r="AC4" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
+      <c r="AD4" s="142"/>
+      <c r="AE4" s="142"/>
+      <c r="AF4" s="142"/>
       <c r="AG4" s="30"/>
       <c r="AH4" s="30"/>
       <c r="AI4" s="30"/>
@@ -7409,7 +7411,7 @@
       </c>
       <c r="C6" s="32" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Hitos435[Inicio])=0,TODAY(),B11(Hitos435[Inicio])),TODAY())</f>
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="30"/>
@@ -7448,7 +7450,7 @@
       <c r="AC6" s="86"/>
       <c r="AD6" s="86" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"mmmm")=W6,TEXT(AD7,"mmmm")=P6,TEXT(AD7,"mmmm")=I6),"",TEXT(AD7,"mmmm"))</f>
-        <v/>
+        <v>julio</v>
       </c>
       <c r="AE6" s="86"/>
       <c r="AF6" s="86"/>
@@ -7458,7 +7460,7 @@
       <c r="AJ6" s="86"/>
       <c r="AK6" s="86" t="str">
         <f ca="1">IF(OR(TEXT(AK7,"mmmm")=AD6,TEXT(AK7,"mmmm")=W6,TEXT(AK7,"mmmm")=P6,TEXT(AK7,"mmmm")=I6),"",TEXT(AK7,"mmmm"))</f>
-        <v>julio</v>
+        <v/>
       </c>
       <c r="AL6" s="86"/>
       <c r="AM6" s="86"/>
@@ -7513,227 +7515,227 @@
       <c r="H7" s="27"/>
       <c r="I7" s="115">
         <f ca="1">IFERROR(Inicio_del_proyecto+Incremento_de_desplazamiento,TODAY())</f>
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="J7" s="116">
         <f ca="1">I7+1</f>
-        <v>45081</v>
+        <v>45088</v>
       </c>
       <c r="K7" s="116">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>45082</v>
+        <v>45089</v>
       </c>
       <c r="L7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45083</v>
+        <v>45090</v>
       </c>
       <c r="M7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="N7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="O7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="P7" s="116">
         <f ca="1">O7+1</f>
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="Q7" s="116">
         <f ca="1">P7+1</f>
-        <v>45088</v>
+        <v>45095</v>
       </c>
       <c r="R7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="S7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="T7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="U7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45092</v>
+        <v>45099</v>
       </c>
       <c r="V7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="W7" s="116">
         <f ca="1">V7+1</f>
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="X7" s="116">
         <f ca="1">W7+1</f>
-        <v>45095</v>
+        <v>45102</v>
       </c>
       <c r="Y7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45096</v>
+        <v>45103</v>
       </c>
       <c r="Z7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="AA7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45098</v>
+        <v>45105</v>
       </c>
       <c r="AB7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="AC7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="AD7" s="116">
         <f ca="1">AC7+1</f>
-        <v>45101</v>
+        <v>45108</v>
       </c>
       <c r="AE7" s="116">
         <f ca="1">AD7+1</f>
-        <v>45102</v>
+        <v>45109</v>
       </c>
       <c r="AF7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="AG7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45104</v>
+        <v>45111</v>
       </c>
       <c r="AH7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45105</v>
+        <v>45112</v>
       </c>
       <c r="AI7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45106</v>
+        <v>45113</v>
       </c>
       <c r="AJ7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="AK7" s="116">
         <f ca="1">AJ7+1</f>
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="AL7" s="116">
         <f ca="1">AK7+1</f>
-        <v>45109</v>
+        <v>45116</v>
       </c>
       <c r="AM7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="AN7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45111</v>
+        <v>45118</v>
       </c>
       <c r="AO7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="AP7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45113</v>
+        <v>45120</v>
       </c>
       <c r="AQ7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="AR7" s="116">
         <f ca="1">AQ7+1</f>
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="AS7" s="116">
         <f ca="1">AR7+1</f>
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="AT7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45117</v>
+        <v>45124</v>
       </c>
       <c r="AU7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45118</v>
+        <v>45125</v>
       </c>
       <c r="AV7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="AW7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45120</v>
+        <v>45127</v>
       </c>
       <c r="AX7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="AY7" s="116">
         <f ca="1">AX7+1</f>
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="AZ7" s="116">
         <f ca="1">AY7+1</f>
-        <v>45123</v>
+        <v>45130</v>
       </c>
       <c r="BA7" s="116">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45124</v>
+        <v>45131</v>
       </c>
       <c r="BB7" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45132</v>
       </c>
       <c r="BC7" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>45126</v>
+        <v>45133</v>
       </c>
       <c r="BD7" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>45127</v>
+        <v>45134</v>
       </c>
       <c r="BE7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="BF7" s="116">
         <f ca="1">BE7+1</f>
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="BG7" s="116">
         <f ca="1">BF7+1</f>
-        <v>45130</v>
+        <v>45137</v>
       </c>
       <c r="BH7" s="116">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45131</v>
+        <v>45138</v>
       </c>
       <c r="BI7" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="BJ7" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>45133</v>
+        <v>45140</v>
       </c>
       <c r="BK7" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="BL7" s="118">
         <f t="shared" ca="1" si="2"/>
-        <v>45135</v>
+        <v>45142</v>
       </c>
       <c r="BM7" s="30"/>
     </row>
@@ -8371,7 +8373,7 @@
       </c>
       <c r="F12" s="21">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="G12" s="22">
         <v>3</v>
@@ -8615,7 +8617,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="21">
         <f ca="1">TODAY()+5</f>
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="G13" s="22">
         <v>1</v>
@@ -8861,7 +8863,7 @@
       </c>
       <c r="F14" s="21">
         <f ca="1">F12-3</f>
-        <v>45076</v>
+        <v>45083</v>
       </c>
       <c r="G14" s="22">
         <v>10</v>
@@ -9105,7 +9107,7 @@
       <c r="E15" s="20"/>
       <c r="F15" s="21">
         <f ca="1">F12+20</f>
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="G15" s="22">
         <v>1</v>
@@ -9351,7 +9353,7 @@
       </c>
       <c r="F16" s="21">
         <f ca="1">F12+6</f>
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="G16" s="22">
         <v>6</v>
@@ -9834,7 +9836,7 @@
       </c>
       <c r="F18" s="21">
         <f ca="1">F12+6</f>
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="G18" s="22">
         <v>13</v>
@@ -10080,7 +10082,7 @@
       </c>
       <c r="F19" s="21">
         <f ca="1">F18+2</f>
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="G19" s="22">
         <v>9</v>
@@ -10326,7 +10328,7 @@
       </c>
       <c r="F20" s="21">
         <f ca="1">F19+5</f>
-        <v>45092</v>
+        <v>45099</v>
       </c>
       <c r="G20" s="22">
         <v>11</v>
@@ -10570,7 +10572,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="21">
         <f ca="1">F20+2</f>
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="G21" s="22">
         <v>1</v>
@@ -10812,7 +10814,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="21">
         <f ca="1">F21+1</f>
-        <v>45095</v>
+        <v>45102</v>
       </c>
       <c r="G22" s="22">
         <v>24</v>
@@ -11293,7 +11295,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="21">
         <f ca="1">F12+15</f>
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="G24" s="22">
         <v>4</v>
@@ -11537,7 +11539,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="21">
         <f ca="1">F24+3</f>
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="G25" s="22">
         <v>14</v>
@@ -11781,7 +11783,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="21">
         <f ca="1">F25+15</f>
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="G26" s="22">
         <v>6</v>
@@ -12025,7 +12027,7 @@
       <c r="E27" s="20"/>
       <c r="F27" s="21">
         <f ca="1">F21+22</f>
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="G27" s="22">
         <v>3</v>
@@ -12269,7 +12271,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="21">
         <f ca="1">F16</f>
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="G28" s="22">
         <v>19</v>
@@ -12748,7 +12750,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="21">
         <f ca="1">F27+3</f>
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="G30" s="22">
         <v>15</v>
@@ -12990,7 +12992,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="21">
         <f ca="1">F30+14</f>
-        <v>45133</v>
+        <v>45140</v>
       </c>
       <c r="G31" s="22">
         <v>5</v>
@@ -13234,7 +13236,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="21">
         <f ca="1">F31+42</f>
-        <v>45175</v>
+        <v>45182</v>
       </c>
       <c r="G32" s="22">
         <v>1</v>
@@ -14278,39 +14280,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="23" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
       <formula>AND($C10="Riesgo bajo",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="8" stopIfTrue="1">
       <formula>AND($C10="Riesgo alto",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="9" stopIfTrue="1">
       <formula>AND($C10="Según lo previsto",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="10" stopIfTrue="1">
       <formula>AND($C10="Riesgo medio",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14457,27 +14459,27 @@
     <row r="1" spans="1:68" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
       <c r="U2" s="88"/>
       <c r="V2" s="88"/>
       <c r="W2" s="88"/>
@@ -14551,36 +14553,36 @@
         <v>30</v>
       </c>
       <c r="H4" s="68"/>
-      <c r="I4" s="130" t="s">
+      <c r="I4" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="N4" s="131" t="s">
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="N4" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="S4" s="132" t="s">
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
+      <c r="S4" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="X4" s="125" t="s">
+      <c r="T4" s="149"/>
+      <c r="U4" s="149"/>
+      <c r="V4" s="149"/>
+      <c r="X4" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AC4" s="126" t="s">
+      <c r="Y4" s="141"/>
+      <c r="Z4" s="141"/>
+      <c r="AA4" s="141"/>
+      <c r="AC4" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
+      <c r="AD4" s="142"/>
+      <c r="AE4" s="142"/>
+      <c r="AF4" s="142"/>
     </row>
     <row r="5" spans="1:68" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
@@ -14601,7 +14603,7 @@
       </c>
       <c r="C6" s="73" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Hitos43524[Inicio])=0,TODAY(),B11(Hitos43524[Inicio])),TODAY())</f>
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="D6" s="73"/>
       <c r="E6" s="68"/>
@@ -14640,7 +14642,7 @@
       <c r="AC6" s="83"/>
       <c r="AD6" s="83" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"mmmm")=W6,TEXT(AD7,"mmmm")=P6,TEXT(AD7,"mmmm")=I6),"",TEXT(AD7,"mmmm"))</f>
-        <v/>
+        <v>julio</v>
       </c>
       <c r="AE6" s="83"/>
       <c r="AF6" s="83"/>
@@ -14650,7 +14652,7 @@
       <c r="AJ6" s="83"/>
       <c r="AK6" s="83" t="str">
         <f ca="1">IF(OR(TEXT(AK7,"mmmm")=AD6,TEXT(AK7,"mmmm")=W6,TEXT(AK7,"mmmm")=P6,TEXT(AK7,"mmmm")=I6),"",TEXT(AK7,"mmmm"))</f>
-        <v>julio</v>
+        <v/>
       </c>
       <c r="AL6" s="83"/>
       <c r="AM6" s="83"/>
@@ -14704,227 +14706,227 @@
       <c r="H7" s="75"/>
       <c r="I7" s="107">
         <f ca="1">IFERROR(Inicio_del_proyecto+Incremento_de_desplazamiento,TODAY())</f>
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="J7" s="108">
         <f ca="1">I7+1</f>
-        <v>45081</v>
+        <v>45088</v>
       </c>
       <c r="K7" s="108">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>45082</v>
+        <v>45089</v>
       </c>
       <c r="L7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45083</v>
+        <v>45090</v>
       </c>
       <c r="M7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="N7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="O7" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="P7" s="108">
         <f ca="1">O7+1</f>
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="Q7" s="108">
         <f ca="1">P7+1</f>
-        <v>45088</v>
+        <v>45095</v>
       </c>
       <c r="R7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="S7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="T7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="U7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45092</v>
+        <v>45099</v>
       </c>
       <c r="V7" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="W7" s="108">
         <f ca="1">V7+1</f>
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="X7" s="108">
         <f ca="1">W7+1</f>
-        <v>45095</v>
+        <v>45102</v>
       </c>
       <c r="Y7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45096</v>
+        <v>45103</v>
       </c>
       <c r="Z7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="AA7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45098</v>
+        <v>45105</v>
       </c>
       <c r="AB7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="AC7" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="AD7" s="108">
         <f ca="1">AC7+1</f>
-        <v>45101</v>
+        <v>45108</v>
       </c>
       <c r="AE7" s="108">
         <f ca="1">AD7+1</f>
-        <v>45102</v>
+        <v>45109</v>
       </c>
       <c r="AF7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="AG7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45104</v>
+        <v>45111</v>
       </c>
       <c r="AH7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45105</v>
+        <v>45112</v>
       </c>
       <c r="AI7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45106</v>
+        <v>45113</v>
       </c>
       <c r="AJ7" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="AK7" s="108">
         <f ca="1">AJ7+1</f>
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="AL7" s="108">
         <f ca="1">AK7+1</f>
-        <v>45109</v>
+        <v>45116</v>
       </c>
       <c r="AM7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="AN7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45111</v>
+        <v>45118</v>
       </c>
       <c r="AO7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="AP7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45113</v>
+        <v>45120</v>
       </c>
       <c r="AQ7" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="AR7" s="108">
         <f ca="1">AQ7+1</f>
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="AS7" s="108">
         <f ca="1">AR7+1</f>
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="AT7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45117</v>
+        <v>45124</v>
       </c>
       <c r="AU7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45118</v>
+        <v>45125</v>
       </c>
       <c r="AV7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="AW7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45120</v>
+        <v>45127</v>
       </c>
       <c r="AX7" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="AY7" s="108">
         <f ca="1">AX7+1</f>
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="AZ7" s="108">
         <f ca="1">AY7+1</f>
-        <v>45123</v>
+        <v>45130</v>
       </c>
       <c r="BA7" s="108">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45124</v>
+        <v>45131</v>
       </c>
       <c r="BB7" s="108">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45132</v>
       </c>
       <c r="BC7" s="108">
         <f t="shared" ca="1" si="1"/>
-        <v>45126</v>
+        <v>45133</v>
       </c>
       <c r="BD7" s="108">
         <f t="shared" ca="1" si="1"/>
-        <v>45127</v>
+        <v>45134</v>
       </c>
       <c r="BE7" s="109">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="BF7" s="108">
         <f ca="1">BE7+1</f>
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="BG7" s="108">
         <f ca="1">BF7+1</f>
-        <v>45130</v>
+        <v>45137</v>
       </c>
       <c r="BH7" s="108">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45131</v>
+        <v>45138</v>
       </c>
       <c r="BI7" s="108">
         <f t="shared" ca="1" si="2"/>
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="BJ7" s="108">
         <f t="shared" ca="1" si="2"/>
-        <v>45133</v>
+        <v>45140</v>
       </c>
       <c r="BK7" s="108">
         <f t="shared" ca="1" si="2"/>
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="BL7" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>45135</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -15556,7 +15558,7 @@
       </c>
       <c r="F12" s="55">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="G12" s="56">
         <v>3</v>
@@ -15799,7 +15801,7 @@
       <c r="E13" s="54"/>
       <c r="F13" s="55">
         <f ca="1">TODAY()+5</f>
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="G13" s="56">
         <v>1</v>
@@ -16044,7 +16046,7 @@
       </c>
       <c r="F14" s="55">
         <f ca="1">F12-3</f>
-        <v>45076</v>
+        <v>45083</v>
       </c>
       <c r="G14" s="56">
         <v>10</v>
@@ -16287,7 +16289,7 @@
       <c r="E15" s="54"/>
       <c r="F15" s="55">
         <f ca="1">F12+20</f>
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="G15" s="56">
         <v>1</v>
@@ -16532,7 +16534,7 @@
       </c>
       <c r="F16" s="55">
         <f ca="1">F12+6</f>
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="G16" s="56">
         <v>6</v>
@@ -17013,7 +17015,7 @@
       </c>
       <c r="F18" s="55">
         <f ca="1">F12+6</f>
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="G18" s="56">
         <v>13</v>
@@ -17258,7 +17260,7 @@
       </c>
       <c r="F19" s="55">
         <f ca="1">F18+2</f>
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="G19" s="56">
         <v>9</v>
@@ -17503,7 +17505,7 @@
       </c>
       <c r="F20" s="55">
         <f ca="1">F19+5</f>
-        <v>45092</v>
+        <v>45099</v>
       </c>
       <c r="G20" s="56">
         <v>11</v>
@@ -17746,7 +17748,7 @@
       <c r="E21" s="54"/>
       <c r="F21" s="55">
         <f ca="1">F20+2</f>
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="G21" s="56">
         <v>1</v>
@@ -17987,7 +17989,7 @@
       <c r="E22" s="54"/>
       <c r="F22" s="55">
         <f ca="1">F21+1</f>
-        <v>45095</v>
+        <v>45102</v>
       </c>
       <c r="G22" s="56">
         <v>24</v>
@@ -18466,7 +18468,7 @@
       <c r="E24" s="54"/>
       <c r="F24" s="55">
         <f ca="1">F12+15</f>
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="G24" s="56">
         <v>4</v>
@@ -18709,7 +18711,7 @@
       <c r="E25" s="54"/>
       <c r="F25" s="55">
         <f ca="1">F24+3</f>
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="G25" s="56">
         <v>14</v>
@@ -18952,7 +18954,7 @@
       <c r="E26" s="54"/>
       <c r="F26" s="55">
         <f ca="1">F25+15</f>
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="G26" s="56">
         <v>6</v>
@@ -19195,7 +19197,7 @@
       <c r="E27" s="54"/>
       <c r="F27" s="55">
         <f ca="1">F21+22</f>
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="G27" s="56">
         <v>3</v>
@@ -19438,7 +19440,7 @@
       <c r="E28" s="54"/>
       <c r="F28" s="55">
         <f ca="1">F16</f>
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="G28" s="56">
         <v>19</v>
@@ -19915,7 +19917,7 @@
       <c r="E30" s="54"/>
       <c r="F30" s="55">
         <f ca="1">F27+3</f>
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="G30" s="56">
         <v>15</v>
@@ -20156,7 +20158,7 @@
       <c r="E31" s="54"/>
       <c r="F31" s="55">
         <f ca="1">F30+14</f>
-        <v>45133</v>
+        <v>45140</v>
       </c>
       <c r="G31" s="56">
         <v>5</v>
@@ -20399,7 +20401,7 @@
       <c r="E32" s="54"/>
       <c r="F32" s="55">
         <f ca="1">F31+42</f>
-        <v>45175</v>
+        <v>45182</v>
       </c>
       <c r="G32" s="56">
         <v>1</v>
@@ -21439,39 +21441,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>AND($C10="Riesgo bajo",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>AND($C10="Riesgo alto",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>AND($C10="Según lo previsto",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
       <formula>AND($C10="Riesgo medio",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21597,25 +21599,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21891,6 +21874,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -21901,18 +21903,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21933,6 +21923,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
   <ds:schemaRefs>
